--- a/Assignment1Output.xlsx
+++ b/Assignment1Output.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Submit" r:id="rId3" sheetId="1"/>
-    <sheet name="NoSubmit" r:id="rId4" sheetId="2"/>
+    <sheet name="NotSubmit" r:id="rId4" sheetId="2"/>
     <sheet name="Unknown" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
